--- a/data/trans_camb/POLIPATOLOGIA_Lim_2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_Lim_2-Clase-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,9 +516,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,68 +531,50 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2012/2007</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
     </row>
@@ -615,9 +587,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,98</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,21</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,13</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,93</t>
+          <t>11,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,69</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,35</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>11,96</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>12,87</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>17,93</t>
+          <t>5,97</t>
         </is>
       </c>
     </row>
@@ -685,47 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,86; 15,5</t>
+          <t>-5,0; 4,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,93; 15,56</t>
+          <t>-3,24; 5,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,66; 16,47</t>
+          <t>-3,73; 6,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,47; 16,14</t>
+          <t>6,17; 16,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,91; 17,77</t>
+          <t>-2,49; 4,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,07; 26,58</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>9,68; 14,52</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>10,5; 15,45</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>15,79; 20,26</t>
+          <t>2,5; 9,26</t>
         </is>
       </c>
     </row>
@@ -738,47 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>95,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>49,91%</t>
         </is>
       </c>
     </row>
@@ -791,47 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,37; 50,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,26; 57,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,48; 73,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,41; 195,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,05; 45,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>17,92; 91,98</t>
         </is>
       </c>
     </row>
@@ -848,47 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,45</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,89</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,38</t>
+          <t>-4,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,02</t>
+          <t>7,82</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>14,48</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,84</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>15,94</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>13,17</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>20,63</t>
+          <t>4,69</t>
         </is>
       </c>
     </row>
@@ -901,47 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,12; 17,78</t>
+          <t>-6,3; 3,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,75; 15,8</t>
+          <t>-2,63; 6,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,22; 18,47</t>
+          <t>-10,19; 1,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,03; 23,9</t>
+          <t>2,09; 13,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,05; 18,87</t>
+          <t>-6,7; 0,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,48; 30,46</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>13,01; 19,0</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>10,75; 15,82</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>18,03; 23,36</t>
+          <t>0,61; 8,84</t>
         </is>
       </c>
     </row>
@@ -954,47 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-11,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-23,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>41,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-17,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>29,45%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,42; 34,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,6; 63,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,14; 10,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,4; 90,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,69; 6,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>3,2; 65,28</t>
         </is>
       </c>
     </row>
@@ -1064,47 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>22,37</t>
+          <t>-6,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16,28</t>
+          <t>-10,35</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,02</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28,8</t>
+          <t>10,64</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>31,66</t>
+          <t>-4,25</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>39,44</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>24,25</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>19,99</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>17,5</t>
+          <t>-6,75</t>
         </is>
       </c>
     </row>
@@ -1117,47 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,17; 26,26</t>
+          <t>-10,86; -1,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,02; 19,55</t>
+          <t>-19,49; -1,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,73; 20,03</t>
+          <t>-6,82; 13,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,41; 35,01</t>
+          <t>2,49; 19,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,47; 40,16</t>
+          <t>-8,2; 0,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,85; 46,16</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>21,38; 27,32</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>16,67; 23,18</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>7,79; 25,37</t>
+          <t>-18,0; 1,88</t>
         </is>
       </c>
     </row>
@@ -1170,47 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-27,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-46,27%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>36,93%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-17,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>-27,84%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,52; -8,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,64; -6,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,14; 52,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,83; 79,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,68; 1,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-69,57; 7,8</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>19,7</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,59</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>22,24</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20,84</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>19,59</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>22,6</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>20,16</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>17,84</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>22,42</t>
+          <t>2,26</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,34; 22,12</t>
+          <t>-6,51; -0,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,42; 18,97</t>
+          <t>-0,92; 6,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,61; 25,06</t>
+          <t>-5,45; 3,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,07; 24,01</t>
+          <t>-9,94; 9,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,03; 22,79</t>
+          <t>-5,02; 0,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,57; 29,22</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>18,34; 22,15</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>16,09; 19,65</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>15,68; 25,66</t>
+          <t>-4,58; 5,66</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-15,81%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-6,02%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-11,48%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>11,21%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,38; -0,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,48; 33,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,12; 17,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,63; 46,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,93; 1,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-21,01; 29,15</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>18,52</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>20,23</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>23,81</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>36,93</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>33,96</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>36,39</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>29,54</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>27,69</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>31,85</t>
+          <t>2,31</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>14,84; 21,9</t>
+          <t>-3,05; 6,66</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,27; 23,67</t>
+          <t>-0,01; 10,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>20,17; 27,88</t>
+          <t>-8,2; 1,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>33,3; 40,45</t>
+          <t>-10,69; 5,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>30,48; 37,66</t>
+          <t>-5,14; 2,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>26,98; 41,69</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>27,1; 32,2</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>25,18; 30,25</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>26,32; 35,09</t>
+          <t>-3,58; 6,49</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>28,57%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-8,03%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-1,45%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-6,27%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>7,83%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,05; 41,22</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,02; 65,21</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,25; 5,02</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,67; 15,35</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,4; 7,55</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-10,94; 23,48</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>9,77</t>
+          <t>-6,38</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>37,75</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>31,36</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>36,29</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>31,02</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>25,37</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>29,93</t>
+          <t>-1,09</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,14; 6,5</t>
+          <t>-4,1; 2,63</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,38; 5,37</t>
+          <t>1,61; 14,78</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5,61; 18,47</t>
+          <t>-10,89; -2,38</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>34,79; 40,85</t>
+          <t>-5,67; 2,96</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>28,43; 34,12</t>
+          <t>-9,19; -2,32</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>33,22; 39,69</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>28,27; 33,53</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>22,9; 27,86</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>26,93; 32,91</t>
+          <t>-5,07; 2,7</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-8,42%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>218,99%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-16,91%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-3,85%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-18,2%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>-3,53%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,3; 234,37</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,06; 759,2</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,46; -6,67</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,44; 8,19</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,33; -7,84</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-15,43; 9,15</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>16,97</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>14,96</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>17,27</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>29,2</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>25,65</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>30,09</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>23,19</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>20,42</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>23,87</t>
+          <t>0,67</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>15,67; 18,32</t>
+          <t>-3,81; -0,2</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>13,65; 16,15</t>
+          <t>-3,69; 2,51</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>13,08; 19,13</t>
+          <t>-5,66; -1,36</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>27,66; 30,83</t>
+          <t>-4,94; 3,78</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>24,05; 27,2</t>
+          <t>-4,25; -1,3</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>24,38; 32,64</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>22,28; 24,28</t>
-        </is>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>19,46; 21,45</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>20,21; 25,62</t>
+          <t>-2,44; 2,77</t>
         </is>
       </c>
     </row>
@@ -2034,47 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-11,82%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-12,14%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-11,97%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>2,9%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,1; -1,17</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,31; 15,52</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,79; -4,8</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,11; 13,31</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,74; -5,83</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-10,32; 12,12</t>
         </is>
       </c>
     </row>
@@ -2141,11 +1690,11 @@
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_camb/POLIPATOLOGIA_Lim_2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_Lim_2-Clase-trans_camb.xlsx
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
